--- a/tests/expected_outputs/Extension Staff PEARS Entries 2022-09.xlsx
+++ b/tests/expected_outputs/Extension Staff PEARS Entries 2022-09.xlsx
@@ -160,214 +160,214 @@
     <t>Success Stories Collaborated Created YTD</t>
   </si>
   <si>
+    <t>UE</t>
+  </si>
+  <si>
     <t>CW</t>
   </si>
   <si>
     <t>EPC</t>
   </si>
   <si>
-    <t>UE</t>
-  </si>
-  <si>
     <t>OS</t>
   </si>
   <si>
-    <t>Davis, Kathleen</t>
-  </si>
-  <si>
-    <t>Gonzalez, Catherine</t>
-  </si>
-  <si>
-    <t>Lewis, Scott</t>
-  </si>
-  <si>
-    <t>Walker, Brittney</t>
-  </si>
-  <si>
-    <t>Webb MD, Scott</t>
-  </si>
-  <si>
-    <t>Kim, Bradley</t>
-  </si>
-  <si>
-    <t>Tate, Jason</t>
-  </si>
-  <si>
-    <t>Huynh, Johnny</t>
-  </si>
-  <si>
-    <t>Jones, James</t>
-  </si>
-  <si>
-    <t>Powell, Jessica</t>
-  </si>
-  <si>
-    <t>Ramsey, Pamela</t>
-  </si>
-  <si>
-    <t>Smith, Maria</t>
-  </si>
-  <si>
-    <t>Jones, Ruben</t>
-  </si>
-  <si>
-    <t>Morris, Jenna</t>
-  </si>
-  <si>
-    <t>Hood, Wanda</t>
-  </si>
-  <si>
-    <t>Baker, Hannah</t>
-  </si>
-  <si>
-    <t>Hoffman, Logan</t>
-  </si>
-  <si>
-    <t>Travis, Eric</t>
-  </si>
-  <si>
-    <t>Estrada, Karen</t>
-  </si>
-  <si>
-    <t>Rasmussen, Debra</t>
-  </si>
-  <si>
-    <t>Brown, Thomas</t>
-  </si>
-  <si>
-    <t>Clark, Crystal</t>
-  </si>
-  <si>
-    <t>Henderson, Melinda</t>
-  </si>
-  <si>
-    <t>Holmes, Rachel</t>
-  </si>
-  <si>
-    <t>Torres, Caroline</t>
-  </si>
-  <si>
-    <t>Johnson, Glenn</t>
-  </si>
-  <si>
-    <t>Lee, Cindy</t>
-  </si>
-  <si>
-    <t>Stephenson, Jennifer</t>
-  </si>
-  <si>
-    <t>Thomas, Thomas</t>
-  </si>
-  <si>
-    <t>West, Joshua</t>
-  </si>
-  <si>
-    <t>Lawson, Sarah</t>
-  </si>
-  <si>
-    <t>Robinson, Michael</t>
-  </si>
-  <si>
-    <t>Sweeney, Jonathan</t>
-  </si>
-  <si>
-    <t>Kathleen.Davis@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Catherine.Gonzalez@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Scott.Lewis@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Brittney.Walker@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Scott.Webb.MD@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Bradley.Kim@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Jason.Tate@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Johnny.Huynh@fake_domain.com</t>
-  </si>
-  <si>
-    <t>James.Jones@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Jessica.Powell@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Pamela.Ramsey@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Maria.Smith@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Ruben.Jones@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Jenna.Morris@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Wanda.Hood@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Hannah.Baker@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Logan.Hoffman@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Eric.Travis@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Karen.Estrada@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Debra.Rasmussen@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Thomas.Brown@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Crystal.Clark@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Melinda.Henderson@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Rachel.Holmes@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Caroline.Torres@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Glenn.Johnson@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Cindy.Lee@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Jennifer.Stephenson@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Thomas.Thomas@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Joshua.West@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Sarah.Lawson@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Michael.Robinson@fake_domain.com</t>
-  </si>
-  <si>
-    <t>Jonathan.Sweeney@fake_domain.com</t>
+    <t>Evans, Melanie</t>
+  </si>
+  <si>
+    <t>Jones, Erica</t>
+  </si>
+  <si>
+    <t>Jones, Leslie</t>
+  </si>
+  <si>
+    <t>Sanchez, Eric</t>
+  </si>
+  <si>
+    <t>Young, Thomas</t>
+  </si>
+  <si>
+    <t>Mathews, Monica</t>
+  </si>
+  <si>
+    <t>Simmons, Barbara</t>
+  </si>
+  <si>
+    <t>Barker, Dawn</t>
+  </si>
+  <si>
+    <t>Brewer, Michael</t>
+  </si>
+  <si>
+    <t>Cisneros, Melanie</t>
+  </si>
+  <si>
+    <t>Robinson, Bruce</t>
+  </si>
+  <si>
+    <t>Williams, Steven</t>
+  </si>
+  <si>
+    <t>Shelton, Michael</t>
+  </si>
+  <si>
+    <t>Young, Phyllis</t>
+  </si>
+  <si>
+    <t>Wiley, Russell</t>
+  </si>
+  <si>
+    <t>Adams, Robert</t>
+  </si>
+  <si>
+    <t>Casey, Rachel</t>
+  </si>
+  <si>
+    <t>Osborn, Vicki</t>
+  </si>
+  <si>
+    <t>Bailey, Chad</t>
+  </si>
+  <si>
+    <t>Choi, Edward</t>
+  </si>
+  <si>
+    <t>Alexander, Allison</t>
+  </si>
+  <si>
+    <t>Brown, Aaron</t>
+  </si>
+  <si>
+    <t>Fitzgerald, Natalie</t>
+  </si>
+  <si>
+    <t>Howell, Karen</t>
+  </si>
+  <si>
+    <t>Singleton, Jennifer</t>
+  </si>
+  <si>
+    <t>Mcclain, Jared</t>
+  </si>
+  <si>
+    <t>Moore, Ryan</t>
+  </si>
+  <si>
+    <t>Newman, Sharon</t>
+  </si>
+  <si>
+    <t>Ortiz, Wayne</t>
+  </si>
+  <si>
+    <t>Randall, Sabrina</t>
+  </si>
+  <si>
+    <t>Armstrong, Steven</t>
+  </si>
+  <si>
+    <t>Houston, Tyler</t>
+  </si>
+  <si>
+    <t>Porter, Louis</t>
+  </si>
+  <si>
+    <t>Melanie.Evans@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Erica.Jones@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Leslie.Jones@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Eric.Sanchez@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Thomas.Young@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Monica.Mathews@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Barbara.Simmons@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Dawn.Barker@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Michael.Brewer@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Melanie.Cisneros@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Bruce.Robinson@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Steven.Williams@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Michael.Shelton@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Phyllis.Young@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Russell.Wiley@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Robert.Adams@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Rachel.Casey@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Vicki.Osborn@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Chad.Bailey@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Edward.Choi@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Allison.Alexander@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Aaron.Brown@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Natalie.Fitzgerald@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Karen.Howell@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Jennifer.Singleton@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Jared.Mcclain@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Ryan.Moore@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Sharon.Newman@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Wayne.Ortiz@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Sabrina.Randall@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Steven.Armstrong@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Tyler.Houston@fake_domain.com</t>
+  </si>
+  <si>
+    <t>Louis.Porter@fake_domain.com</t>
   </si>
 </sst>
 </file>
@@ -750,8 +750,8 @@
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" customWidth="1"/>
     <col min="6" max="6" width="31.7109375" customWidth="1"/>
     <col min="7" max="7" width="32.7109375" customWidth="1"/>
     <col min="8" max="8" width="26.7109375" customWidth="1"/>
@@ -956,112 +956,112 @@
         <v>84</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H2">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="K2">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N2">
         <v>10</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q2">
+        <v>11</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>3</v>
+      </c>
+      <c r="Z2">
+        <v>4</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>3</v>
+      </c>
+      <c r="AC2">
+        <v>4</v>
+      </c>
+      <c r="AD2">
+        <v>2</v>
+      </c>
+      <c r="AE2">
+        <v>5</v>
+      </c>
+      <c r="AF2">
+        <v>5</v>
+      </c>
+      <c r="AG2">
+        <v>4</v>
+      </c>
+      <c r="AH2">
+        <v>47</v>
+      </c>
+      <c r="AI2">
+        <v>52</v>
+      </c>
+      <c r="AJ2">
+        <v>2</v>
+      </c>
+      <c r="AK2">
+        <v>8</v>
+      </c>
+      <c r="AL2">
         <v>12</v>
       </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
       <c r="AM2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AP2">
         <v>0</v>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS2">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="AU2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:47">
@@ -1099,58 +1099,58 @@
         <v>85</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H3">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J3">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K3">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -1165,46 +1165,46 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AG3">
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
         <v>0</v>
       </c>
       <c r="AK3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AP3">
         <v>0</v>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS3">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="AU3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:47">
@@ -1242,40 +1242,40 @@
         <v>86</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="K4">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1284,16 +1284,16 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
         <v>0</v>
       </c>
       <c r="AK4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP4">
         <v>0</v>
@@ -1365,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="AU4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:47">
@@ -1385,112 +1385,112 @@
         <v>87</v>
       </c>
       <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>45</v>
+      </c>
+      <c r="K5">
+        <v>55</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>2</v>
+      </c>
+      <c r="AE5">
         <v>4</v>
       </c>
-      <c r="G5">
-        <v>20</v>
-      </c>
-      <c r="H5">
-        <v>24</v>
-      </c>
-      <c r="I5">
-        <v>6</v>
-      </c>
-      <c r="J5">
-        <v>71</v>
-      </c>
-      <c r="K5">
-        <v>80</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>3</v>
-      </c>
-      <c r="Z5">
+      <c r="AF5">
         <v>4</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>3</v>
-      </c>
-      <c r="AC5">
-        <v>4</v>
-      </c>
-      <c r="AD5">
-        <v>2</v>
-      </c>
-      <c r="AE5">
-        <v>5</v>
-      </c>
-      <c r="AF5">
-        <v>5</v>
       </c>
       <c r="AG5">
         <v>4</v>
       </c>
       <c r="AH5">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="AI5">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="AJ5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AL5">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AM5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN5">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="AO5">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AP5">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS5">
         <v>0</v>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="AU5">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:47">
@@ -1516,7 +1516,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -1528,112 +1528,112 @@
         <v>88</v>
       </c>
       <c r="F6">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H6">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I6">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K6">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L6">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>6</v>
+      </c>
+      <c r="AF6">
+        <v>6</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>31</v>
+      </c>
+      <c r="AI6">
+        <v>36</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>6</v>
+      </c>
+      <c r="AL6">
+        <v>6</v>
+      </c>
+      <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
         <v>7</v>
       </c>
-      <c r="T6">
-        <v>7</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>7</v>
-      </c>
-      <c r="W6">
-        <v>7</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
       <c r="AO6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AP6">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS6">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="AU6">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:47">
@@ -1659,7 +1659,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -1671,112 +1671,112 @@
         <v>89</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J7">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K7">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD7">
         <v>0</v>
       </c>
       <c r="AE7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
         <v>0</v>
       </c>
       <c r="AK7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AL7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AM7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AO7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AP7">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="AR7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS7">
         <v>0</v>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="AU7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:47">
@@ -1814,113 +1814,113 @@
         <v>90</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H8">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J8">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="K8">
+        <v>57</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <v>4</v>
+      </c>
+      <c r="Q8">
+        <v>8</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>2</v>
+      </c>
+      <c r="W8">
+        <v>2</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>4</v>
+      </c>
+      <c r="Z8">
+        <v>4</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>9</v>
+      </c>
+      <c r="AC8">
+        <v>9</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>11</v>
+      </c>
+      <c r="AF8">
+        <v>11</v>
+      </c>
+      <c r="AG8">
+        <v>3</v>
+      </c>
+      <c r="AH8">
+        <v>15</v>
+      </c>
+      <c r="AI8">
         <v>31</v>
       </c>
-      <c r="L8">
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>5</v>
+      </c>
+      <c r="AL8">
+        <v>5</v>
+      </c>
+      <c r="AM8">
+        <v>1</v>
+      </c>
+      <c r="AN8">
         <v>6</v>
       </c>
-      <c r="M8">
-        <v>11</v>
-      </c>
-      <c r="N8">
-        <v>19</v>
-      </c>
-      <c r="O8">
+      <c r="AO8">
         <v>6</v>
       </c>
-      <c r="P8">
-        <v>11</v>
-      </c>
-      <c r="Q8">
-        <v>28</v>
-      </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
-      <c r="U8">
-        <v>1</v>
-      </c>
-      <c r="V8">
-        <v>1</v>
-      </c>
-      <c r="W8">
-        <v>1</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
       <c r="AP8">
         <v>0</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="AR8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS8">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="AU8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:47">
@@ -1945,7 +1945,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -1960,19 +1960,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1984,13 +1984,13 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -2026,43 +2026,43 @@
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD9">
         <v>0</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AG9">
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AJ9">
         <v>0</v>
       </c>
       <c r="AK9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM9">
         <v>0</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AP9">
         <v>0</v>
@@ -2088,7 +2088,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -2100,19 +2100,19 @@
         <v>92</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="H10">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="K10">
         <v>79</v>
@@ -2121,19 +2121,19 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -2148,10 +2148,10 @@
         <v>0</v>
       </c>
       <c r="V10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X10">
         <v>0</v>
@@ -2166,64 +2166,64 @@
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD10">
         <v>0</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG10">
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="AJ10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK10">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:47">
@@ -2231,7 +2231,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -2252,13 +2252,13 @@
         <v>51</v>
       </c>
       <c r="I11">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J11">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="K11">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="L11">
         <v>9</v>
@@ -2270,13 +2270,13 @@
         <v>40</v>
       </c>
       <c r="O11">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P11">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="Q11">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -2291,10 +2291,10 @@
         <v>0</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X11">
         <v>0</v>
@@ -2345,10 +2345,10 @@
         <v>0</v>
       </c>
       <c r="AN11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AP11">
         <v>5</v>
@@ -2360,13 +2360,13 @@
         <v>10</v>
       </c>
       <c r="AS11">
+        <v>5</v>
+      </c>
+      <c r="AT11">
+        <v>5</v>
+      </c>
+      <c r="AU11">
         <v>10</v>
-      </c>
-      <c r="AT11">
-        <v>10</v>
-      </c>
-      <c r="AU11">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:47">
@@ -2389,19 +2389,19 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K12">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -2413,13 +2413,13 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA12">
         <v>0</v>
@@ -2455,43 +2455,43 @@
         <v>0</v>
       </c>
       <c r="AC12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD12">
         <v>0</v>
       </c>
       <c r="AE12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AG12">
         <v>0</v>
       </c>
       <c r="AH12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AI12">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AJ12">
         <v>0</v>
       </c>
       <c r="AK12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12">
         <v>0</v>
       </c>
       <c r="AN12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AP12">
         <v>0</v>
@@ -2529,40 +2529,40 @@
         <v>95</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="H13">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="K13">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -2577,10 +2577,10 @@
         <v>0</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X13">
         <v>0</v>
@@ -2595,64 +2595,64 @@
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AD13">
         <v>0</v>
       </c>
       <c r="AE13">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AG13">
         <v>0</v>
       </c>
       <c r="AH13">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AI13">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="AJ13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AL13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AM13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN13">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AO13">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:47">
@@ -2660,7 +2660,7 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -2675,19 +2675,19 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="H14">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="K14">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -2696,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -2705,97 +2705,97 @@
         <v>0</v>
       </c>
       <c r="Q14">
+        <v>8</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AC14">
+        <v>1</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>29</v>
+      </c>
+      <c r="AF14">
+        <v>30</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>39</v>
+      </c>
+      <c r="AI14">
         <v>56</v>
       </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>1</v>
-      </c>
-      <c r="AI14">
-        <v>1</v>
-      </c>
       <c r="AJ14">
         <v>0</v>
       </c>
       <c r="AK14">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="AL14">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="AM14">
         <v>0</v>
       </c>
       <c r="AN14">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="AO14">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="AP14">
         <v>0</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AS14">
         <v>0</v>
       </c>
       <c r="AT14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU14">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:47">
@@ -2818,19 +2818,19 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="K15">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -2839,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -2863,10 +2863,10 @@
         <v>0</v>
       </c>
       <c r="V15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15">
         <v>0</v>
@@ -2881,64 +2881,64 @@
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD15">
         <v>0</v>
       </c>
       <c r="AE15">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AG15">
         <v>0</v>
       </c>
       <c r="AH15">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="AI15">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="AJ15">
         <v>0</v>
       </c>
       <c r="AK15">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="AL15">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="AM15">
         <v>0</v>
       </c>
       <c r="AN15">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="AO15">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="AP15">
         <v>0</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR15">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AS15">
         <v>0</v>
       </c>
       <c r="AT15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU15">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:47">
@@ -2946,7 +2946,7 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -3089,7 +3089,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -3116,7 +3116,7 @@
         <v>10</v>
       </c>
       <c r="K17">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L17">
         <v>9</v>
@@ -3134,7 +3134,7 @@
         <v>10</v>
       </c>
       <c r="Q17">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -3244,130 +3244,130 @@
         <v>100</v>
       </c>
       <c r="F18">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G18">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H18">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I18">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J18">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="K18">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X18">
         <v>0</v>
       </c>
       <c r="Y18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AA18">
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD18">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE18">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AF18">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AG18">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AH18">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AI18">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="AJ18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK18">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AL18">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AM18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AN18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AO18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AR18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AU18">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:47">
@@ -3387,130 +3387,130 @@
         <v>101</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G19">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H19">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J19">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="K19">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M19">
+        <v>6</v>
+      </c>
+      <c r="N19">
+        <v>6</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>8</v>
+      </c>
+      <c r="Q19">
+        <v>8</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>6</v>
+      </c>
+      <c r="Z19">
+        <v>6</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>2</v>
+      </c>
+      <c r="AC19">
+        <v>2</v>
+      </c>
+      <c r="AD19">
+        <v>7</v>
+      </c>
+      <c r="AE19">
+        <v>23</v>
+      </c>
+      <c r="AF19">
+        <v>25</v>
+      </c>
+      <c r="AG19">
+        <v>10</v>
+      </c>
+      <c r="AH19">
         <v>29</v>
       </c>
-      <c r="N19">
-        <v>29</v>
-      </c>
-      <c r="O19">
-        <v>2</v>
-      </c>
-      <c r="P19">
-        <v>29</v>
-      </c>
-      <c r="Q19">
-        <v>29</v>
-      </c>
-      <c r="R19">
-        <v>1</v>
-      </c>
-      <c r="S19">
-        <v>3</v>
-      </c>
-      <c r="T19">
-        <v>3</v>
-      </c>
-      <c r="U19">
-        <v>1</v>
-      </c>
-      <c r="V19">
-        <v>3</v>
-      </c>
-      <c r="W19">
-        <v>3</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
       <c r="AI19">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="AJ19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK19">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AL19">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AM19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AP19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AR19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AU19">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:47">
@@ -3518,7 +3518,7 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -3542,10 +3542,10 @@
         <v>2</v>
       </c>
       <c r="J20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K20">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -3560,10 +3560,10 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q20">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R20">
         <v>2</v>
@@ -3661,7 +3661,7 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -3804,7 +3804,7 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -3816,58 +3816,58 @@
         <v>104</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="R22">
         <v>0</v>
       </c>
       <c r="S22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U22">
         <v>0</v>
       </c>
       <c r="V22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X22">
         <v>0</v>
@@ -3930,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="AR22">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AS22">
         <v>0</v>
@@ -3939,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="AU22">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:47">
@@ -3947,10 +3947,10 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="s">
         <v>72</v>
@@ -3959,58 +3959,58 @@
         <v>105</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X23">
         <v>0</v>
@@ -4082,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="AU23">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:47">
@@ -4090,7 +4090,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -4102,58 +4102,58 @@
         <v>106</v>
       </c>
       <c r="F24">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="G24">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="H24">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="I24">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="J24">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="K24">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L24">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="M24">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="N24">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="O24">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="P24">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="Q24">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X24">
         <v>0</v>
@@ -4216,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="AR24">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="AS24">
         <v>0</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="AU24">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:47">
@@ -4233,10 +4233,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="s">
         <v>74</v>
@@ -4245,58 +4245,58 @@
         <v>107</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X25">
         <v>0</v>
@@ -4359,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="AR25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS25">
         <v>0</v>
@@ -4368,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="AU25">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:47">
@@ -4376,10 +4376,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="s">
         <v>75</v>
@@ -4388,58 +4388,58 @@
         <v>108</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S26">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="W26">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X26">
         <v>0</v>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="AU26">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:47">
@@ -4519,7 +4519,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -4531,58 +4531,58 @@
         <v>109</v>
       </c>
       <c r="F27">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>12</v>
       </c>
       <c r="H27">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I27">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J27">
+        <v>15</v>
+      </c>
+      <c r="K27">
+        <v>15</v>
+      </c>
+      <c r="L27">
+        <v>12</v>
+      </c>
+      <c r="M27">
+        <v>12</v>
+      </c>
+      <c r="N27">
+        <v>12</v>
+      </c>
+      <c r="O27">
+        <v>12</v>
+      </c>
+      <c r="P27">
         <v>13</v>
       </c>
-      <c r="K27">
-        <v>46</v>
-      </c>
-      <c r="L27">
-        <v>7</v>
-      </c>
-      <c r="M27">
-        <v>11</v>
-      </c>
-      <c r="N27">
-        <v>35</v>
-      </c>
-      <c r="O27">
-        <v>7</v>
-      </c>
-      <c r="P27">
-        <v>11</v>
-      </c>
       <c r="Q27">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="R27">
         <v>0</v>
       </c>
       <c r="S27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U27">
         <v>0</v>
       </c>
       <c r="V27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="X27">
         <v>0</v>
@@ -4645,16 +4645,16 @@
         <v>0</v>
       </c>
       <c r="AR27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:47">
@@ -4662,7 +4662,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
@@ -4674,58 +4674,58 @@
         <v>110</v>
       </c>
       <c r="F28">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G28">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H28">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I28">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J28">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="K28">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="L28">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M28">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="N28">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="O28">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="P28">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="Q28">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="R28">
         <v>0</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U28">
         <v>0</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X28">
         <v>0</v>
@@ -4785,19 +4785,19 @@
         <v>0</v>
       </c>
       <c r="AQ28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AS28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT28">
         <v>2</v>
       </c>
       <c r="AU28">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:47">
@@ -4805,7 +4805,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -4948,7 +4948,7 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -5091,7 +5091,7 @@
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
@@ -5103,40 +5103,40 @@
         <v>113</v>
       </c>
       <c r="F31">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="G31">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H31">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="I31">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="J31">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K31">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="L31">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="M31">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="N31">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="O31">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="P31">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="Q31">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="R31">
         <v>0</v>
@@ -5154,7 +5154,7 @@
         <v>1</v>
       </c>
       <c r="W31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X31">
         <v>0</v>
@@ -5214,19 +5214,19 @@
         <v>0</v>
       </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AS31">
         <v>1</v>
       </c>
       <c r="AT31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU31">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:47">
@@ -5234,7 +5234,7 @@
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
@@ -5246,130 +5246,130 @@
         <v>114</v>
       </c>
       <c r="F32">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G32">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H32">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="I32">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J32">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K32">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="L32">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="M32">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="N32">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="O32">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="P32">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="Q32">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="R32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>0</v>
+      </c>
+      <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>0</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>0</v>
+      </c>
+      <c r="AQ32">
+        <v>0</v>
+      </c>
+      <c r="AR32">
+        <v>5</v>
+      </c>
+      <c r="AS32">
+        <v>1</v>
+      </c>
+      <c r="AT32">
+        <v>1</v>
+      </c>
+      <c r="AU32">
         <v>6</v>
-      </c>
-      <c r="T32">
-        <v>6</v>
-      </c>
-      <c r="U32">
-        <v>1</v>
-      </c>
-      <c r="V32">
-        <v>6</v>
-      </c>
-      <c r="W32">
-        <v>6</v>
-      </c>
-      <c r="X32">
-        <v>0</v>
-      </c>
-      <c r="Y32">
-        <v>0</v>
-      </c>
-      <c r="Z32">
-        <v>0</v>
-      </c>
-      <c r="AA32">
-        <v>0</v>
-      </c>
-      <c r="AB32">
-        <v>0</v>
-      </c>
-      <c r="AC32">
-        <v>0</v>
-      </c>
-      <c r="AD32">
-        <v>0</v>
-      </c>
-      <c r="AE32">
-        <v>0</v>
-      </c>
-      <c r="AF32">
-        <v>0</v>
-      </c>
-      <c r="AG32">
-        <v>0</v>
-      </c>
-      <c r="AH32">
-        <v>0</v>
-      </c>
-      <c r="AI32">
-        <v>0</v>
-      </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
-      <c r="AK32">
-        <v>0</v>
-      </c>
-      <c r="AL32">
-        <v>0</v>
-      </c>
-      <c r="AM32">
-        <v>0</v>
-      </c>
-      <c r="AN32">
-        <v>0</v>
-      </c>
-      <c r="AO32">
-        <v>0</v>
-      </c>
-      <c r="AP32">
-        <v>1</v>
-      </c>
-      <c r="AQ32">
-        <v>1</v>
-      </c>
-      <c r="AR32">
-        <v>6</v>
-      </c>
-      <c r="AS32">
-        <v>2</v>
-      </c>
-      <c r="AT32">
-        <v>2</v>
-      </c>
-      <c r="AU32">
-        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:47">
@@ -5377,7 +5377,7 @@
         <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
@@ -5389,55 +5389,55 @@
         <v>115</v>
       </c>
       <c r="F33">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G33">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H33">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I33">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="J33">
+        <v>37</v>
+      </c>
+      <c r="K33">
+        <v>65</v>
+      </c>
+      <c r="L33">
+        <v>18</v>
+      </c>
+      <c r="M33">
+        <v>28</v>
+      </c>
+      <c r="N33">
         <v>49</v>
       </c>
-      <c r="K33">
-        <v>59</v>
-      </c>
-      <c r="L33">
-        <v>4</v>
-      </c>
-      <c r="M33">
-        <v>43</v>
-      </c>
-      <c r="N33">
-        <v>45</v>
-      </c>
       <c r="O33">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="P33">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="Q33">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W33">
         <v>6</v>
@@ -5458,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="AC33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD33">
         <v>0</v>
@@ -5497,22 +5497,22 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR33">
+        <v>6</v>
+      </c>
+      <c r="AS33">
+        <v>2</v>
+      </c>
+      <c r="AT33">
+        <v>2</v>
+      </c>
+      <c r="AU33">
         <v>7</v>
-      </c>
-      <c r="AS33">
-        <v>1</v>
-      </c>
-      <c r="AT33">
-        <v>1</v>
-      </c>
-      <c r="AU33">
-        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:47">
@@ -5520,7 +5520,7 @@
         <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
@@ -5532,58 +5532,58 @@
         <v>116</v>
       </c>
       <c r="F34">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="G34">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H34">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="I34">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="J34">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K34">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="L34">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="M34">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N34">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="O34">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="P34">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="Q34">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="R34">
         <v>0</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U34">
         <v>0</v>
       </c>
       <c r="V34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X34">
         <v>0</v>
@@ -5601,7 +5601,7 @@
         <v>0</v>
       </c>
       <c r="AC34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD34">
         <v>0</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="AR34">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AS34">
         <v>1</v>
@@ -5655,7 +5655,7 @@
         <v>1</v>
       </c>
       <c r="AU34">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
